--- a/Data/EXCData/2015.xlsx
+++ b/Data/EXCData/2015.xlsx
@@ -40,24 +40,9 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="467">
   <si>
-    <t>Country or region</t>
-  </si>
-  <si>
-    <t>Happiness Score</t>
-  </si>
-  <si>
-    <t>GDP per capita</t>
-  </si>
-  <si>
-    <t>Healthy life expectancy</t>
-  </si>
-  <si>
     <t>Freedom</t>
   </si>
   <si>
-    <t>Perceptions of corruption</t>
-  </si>
-  <si>
     <t>Switzerland</t>
   </si>
   <si>
@@ -1439,6 +1424,21 @@
   </si>
   <si>
     <t>code</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>scoreH</t>
+  </si>
+  <si>
+    <t>GDP</t>
+  </si>
+  <si>
+    <t>Healthy</t>
+  </si>
+  <si>
+    <t>corruption</t>
   </si>
 </sst>
 </file>
@@ -1787,7 +1787,7 @@
   <dimension ref="A1:I150"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1804,36 +1804,36 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>462</v>
+      </c>
+      <c r="B1" t="s">
+        <v>463</v>
+      </c>
+      <c r="C1" t="s">
+        <v>464</v>
+      </c>
+      <c r="D1" t="s">
+        <v>465</v>
+      </c>
+      <c r="E1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>466</v>
       </c>
       <c r="G1" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="H1" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="I1" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B2">
         <v>7.5869999999999997</v>
@@ -1851,18 +1851,18 @@
         <v>0.41977999999999999</v>
       </c>
       <c r="G2" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H2" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>7.5609999999999999</v>
@@ -1880,18 +1880,18 @@
         <v>0.14144999999999999</v>
       </c>
       <c r="G3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H3" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="I3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B4">
         <v>3.5750000000000002</v>
@@ -1909,18 +1909,18 @@
         <v>9.7189999999999999E-2</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="H4" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="I4" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>7.5270000000000001</v>
@@ -1938,18 +1938,18 @@
         <v>0.48357</v>
       </c>
       <c r="G5" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H5" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="I5" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B6">
         <v>4.0330000000000004</v>
@@ -1967,18 +1967,18 @@
         <v>7.1220000000000006E-2</v>
       </c>
       <c r="G6" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="I6" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B7">
         <v>7.5220000000000002</v>
@@ -1996,18 +1996,18 @@
         <v>0.36503000000000002</v>
       </c>
       <c r="G7" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="H7" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I7" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B8">
         <v>4.9589999999999996</v>
@@ -2025,18 +2025,18 @@
         <v>6.4130000000000006E-2</v>
       </c>
       <c r="G8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="H8" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="I8" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B9">
         <v>7.4269999999999996</v>
@@ -2054,18 +2054,18 @@
         <v>0.32956999999999997</v>
       </c>
       <c r="G9" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="H9" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="I9" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B10">
         <v>7.4059999999999997</v>
@@ -2083,18 +2083,18 @@
         <v>0.41371999999999998</v>
       </c>
       <c r="G10" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="H10" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="I10" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B11">
         <v>6.9009999999999998</v>
@@ -2112,18 +2112,18 @@
         <v>0.38583000000000001</v>
       </c>
       <c r="G11" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H11" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="I11" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B12">
         <v>7.3780000000000001</v>
@@ -2141,18 +2141,18 @@
         <v>0.31813999999999998</v>
       </c>
       <c r="G12" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H12" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="I12" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B13">
         <v>6.5739999999999998</v>
@@ -2170,18 +2170,18 @@
         <v>8.4839999999999999E-2</v>
       </c>
       <c r="G13" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H13" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="I13" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B14">
         <v>4.3499999999999996</v>
@@ -2199,18 +2199,18 @@
         <v>3.9E-2</v>
       </c>
       <c r="G14" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H14" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="I14" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B15">
         <v>7.2859999999999996</v>
@@ -2228,18 +2228,18 @@
         <v>0.42921999999999999</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H15" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I15" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B16">
         <v>7.2839999999999998</v>
@@ -2257,18 +2257,18 @@
         <v>0.35637000000000002</v>
       </c>
       <c r="G16" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="H16" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="I16" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B17">
         <v>7.2779999999999996</v>
@@ -2286,18 +2286,18 @@
         <v>7.7850000000000003E-2</v>
       </c>
       <c r="G17" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="I17" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B18">
         <v>7.226</v>
@@ -2315,18 +2315,18 @@
         <v>0.10582999999999999</v>
       </c>
       <c r="G18" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="H18" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="I18" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B19">
         <v>7.2</v>
@@ -2344,18 +2344,18 @@
         <v>0.18676000000000001</v>
       </c>
       <c r="G19" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="H19" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="I19" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B20">
         <v>5.2119999999999997</v>
@@ -2373,18 +2373,18 @@
         <v>0.16064999999999999</v>
       </c>
       <c r="G20" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="H20" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I20" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B21">
         <v>7.1870000000000003</v>
@@ -2402,18 +2402,18 @@
         <v>0.21312</v>
       </c>
       <c r="G21" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="H21" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="I21" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B22">
         <v>2.9049999999999998</v>
@@ -2431,18 +2431,18 @@
         <v>0.10062</v>
       </c>
       <c r="G22" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="H22" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="I22" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B23">
         <v>6.9370000000000003</v>
@@ -2460,18 +2460,18 @@
         <v>0.22539999999999999</v>
       </c>
       <c r="G23" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="H23" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="I23" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B24">
         <v>6.9829999999999997</v>
@@ -2489,18 +2489,18 @@
         <v>0.17521</v>
       </c>
       <c r="G24" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="H24" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="I24" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B25">
         <v>3.34</v>
@@ -2518,18 +2518,18 @@
         <v>8.0100000000000005E-2</v>
       </c>
       <c r="G25" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="H25" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="I25" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B26">
         <v>6.9459999999999997</v>
@@ -2547,18 +2547,18 @@
         <v>0.37797999999999998</v>
       </c>
       <c r="G26" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H26" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="I26" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B27">
         <v>3.5870000000000002</v>
@@ -2576,18 +2576,18 @@
         <v>0.12831999999999999</v>
       </c>
       <c r="G27" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="H27" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="I27" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B28">
         <v>6.94</v>
@@ -2605,18 +2605,18 @@
         <v>0.28703000000000001</v>
       </c>
       <c r="G28" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="H28" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="I28" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B29">
         <v>4.694</v>
@@ -2634,18 +2634,18 @@
         <v>0.12569</v>
       </c>
       <c r="G29" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="H29" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="I29" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B30">
         <v>4.218</v>
@@ -2663,18 +2663,18 @@
         <v>8.7200000000000003E-3</v>
       </c>
       <c r="G30" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="H30" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="I30" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B31">
         <v>5.96</v>
@@ -2692,18 +2692,18 @@
         <v>0.30599999999999999</v>
       </c>
       <c r="G31" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="H31" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="I31" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B32">
         <v>6.867</v>
@@ -2721,18 +2721,18 @@
         <v>0.32067000000000001</v>
       </c>
       <c r="G32" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="H32" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="I32" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B33">
         <v>6.8529999999999998</v>
@@ -2750,18 +2750,18 @@
         <v>0.32523999999999997</v>
       </c>
       <c r="G33" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="H33" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="I33" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B34">
         <v>4.9489999999999998</v>
@@ -2779,18 +2779,18 @@
         <v>2.2699999999999999E-3</v>
       </c>
       <c r="G34" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="H34" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="I34" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B35">
         <v>5.8129999999999997</v>
@@ -2808,18 +2808,18 @@
         <v>0.19089999999999999</v>
       </c>
       <c r="G35" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="H35" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="I35" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B36">
         <v>6.7859999999999996</v>
@@ -2837,18 +2837,18 @@
         <v>9.2700000000000005E-2</v>
       </c>
       <c r="G36" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="H36" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="I36" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B37">
         <v>6.75</v>
@@ -2866,18 +2866,18 @@
         <v>0.21843000000000001</v>
       </c>
       <c r="G37" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="H37" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="I37" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B38">
         <v>5.89</v>
@@ -2895,18 +2895,18 @@
         <v>8.7999999999999995E-2</v>
       </c>
       <c r="G38" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="H38" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="I38" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B39">
         <v>6.67</v>
@@ -2924,18 +2924,18 @@
         <v>0.12869</v>
       </c>
       <c r="G39" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="H39" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="I39" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B40">
         <v>6.5750000000000002</v>
@@ -2953,18 +2953,18 @@
         <v>0.20646</v>
       </c>
       <c r="G40" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="H40" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="I40" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B41">
         <v>5.2530000000000001</v>
@@ -2982,18 +2982,18 @@
         <v>0.15445</v>
       </c>
       <c r="G41" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="H41" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="I41" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B42">
         <v>6.5049999999999999</v>
@@ -3011,18 +3011,18 @@
         <v>2.6519999999999998E-2</v>
       </c>
       <c r="G42" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="H42" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="I42" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B43">
         <v>4.3319999999999999</v>
@@ -3040,18 +3040,18 @@
         <v>0.12474</v>
       </c>
       <c r="G43" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="H43" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="I43" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B44">
         <v>3.6779999999999999</v>
@@ -3069,18 +3069,18 @@
         <v>8.2890000000000005E-2</v>
       </c>
       <c r="G44" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="H44" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="I44" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B45">
         <v>6.4770000000000003</v>
@@ -3098,18 +3098,18 @@
         <v>5.1200000000000002E-2</v>
       </c>
       <c r="G45" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="H45" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="I45" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B46">
         <v>6.3289999999999997</v>
@@ -3127,18 +3127,18 @@
         <v>6.3979999999999995E-2</v>
       </c>
       <c r="G46" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="H46" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="I46" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B47">
         <v>5.14</v>
@@ -3156,18 +3156,18 @@
         <v>2.7810000000000001E-2</v>
       </c>
       <c r="G47" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="H47" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="I47" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B48">
         <v>6.3019999999999996</v>
@@ -3185,18 +3185,18 @@
         <v>0.13586000000000001</v>
       </c>
       <c r="G48" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="H48" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="I48" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B49">
         <v>4.2519999999999998</v>
@@ -3214,18 +3214,18 @@
         <v>5.7860000000000002E-2</v>
       </c>
       <c r="G49" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="H49" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="I49" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B50">
         <v>6.2949999999999999</v>
@@ -3243,18 +3243,18 @@
         <v>0.25608999999999998</v>
       </c>
       <c r="G50" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="H50" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="I50" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B51">
         <v>3.956</v>
@@ -3272,18 +3272,18 @@
         <v>0.19900000000000001</v>
       </c>
       <c r="G51" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="H51" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="I51" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="B52">
         <v>6.1230000000000002</v>
@@ -3301,18 +3301,18 @@
         <v>9.4719999999999999E-2</v>
       </c>
       <c r="G52" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="H52" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="I52" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B53">
         <v>5.9870000000000001</v>
@@ -3330,18 +3330,18 @@
         <v>0.18060000000000001</v>
       </c>
       <c r="G53" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="H53" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="I53" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="B54">
         <v>5.9749999999999996</v>
@@ -3359,18 +3359,18 @@
         <v>0.18090000000000001</v>
       </c>
       <c r="G54" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="H54" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="I54" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B55">
         <v>5.6890000000000001</v>
@@ -3388,18 +3388,18 @@
         <v>6.1460000000000001E-2</v>
       </c>
       <c r="G55" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="H55" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="I55" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B56">
         <v>5.9480000000000004</v>
@@ -3417,18 +3417,18 @@
         <v>2.9010000000000001E-2</v>
       </c>
       <c r="G56" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="H56" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="I56" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B57">
         <v>4.3689999999999998</v>
@@ -3446,18 +3446,18 @@
         <v>0.28105000000000002</v>
       </c>
       <c r="G57" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="H57" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="I57" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B58">
         <v>5.8890000000000002</v>
@@ -3475,18 +3475,18 @@
         <v>1.6150000000000001E-2</v>
       </c>
       <c r="G58" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="H58" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="I58" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B59">
         <v>5.8780000000000001</v>
@@ -3504,18 +3504,18 @@
         <v>8.2419999999999993E-2</v>
       </c>
       <c r="G59" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="H59" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="I59" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B60">
         <v>5.8550000000000004</v>
@@ -3533,18 +3533,18 @@
         <v>8.4540000000000004E-2</v>
       </c>
       <c r="G60" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="H60" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="I60" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="B61">
         <v>4.8849999999999998</v>
@@ -3562,18 +3562,18 @@
         <v>0.14233999999999999</v>
       </c>
       <c r="G61" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="H61" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="I61" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B62">
         <v>5.6050000000000004</v>
@@ -3591,18 +3591,18 @@
         <v>0.17383000000000001</v>
       </c>
       <c r="G62" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="H62" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="I62" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="B63">
         <v>5.8330000000000002</v>
@@ -3620,18 +3620,18 @@
         <v>1.031E-2</v>
       </c>
       <c r="G63" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="H63" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="I63" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B64">
         <v>5.8280000000000003</v>
@@ -3649,18 +3649,18 @@
         <v>0.19317000000000001</v>
       </c>
       <c r="G64" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="H64" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="I64" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="B65">
         <v>5.8239999999999998</v>
@@ -3678,18 +3678,18 @@
         <v>5.9889999999999999E-2</v>
       </c>
       <c r="G65" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="H65" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="I65" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B66">
         <v>5.4290000000000003</v>
@@ -3707,18 +3707,18 @@
         <v>0.15184</v>
       </c>
       <c r="G66" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="H66" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="I66" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="B67">
         <v>5.7910000000000004</v>
@@ -3736,18 +3736,18 @@
         <v>4.2119999999999998E-2</v>
       </c>
       <c r="G67" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="H67" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="I67" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="B68">
         <v>4.5119999999999996</v>
@@ -3765,18 +3765,18 @@
         <v>0.15048</v>
       </c>
       <c r="G68" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="H68" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="I68" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="B69">
         <v>5.77</v>
@@ -3794,18 +3794,18 @@
         <v>0.10501000000000001</v>
       </c>
       <c r="G69" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="H69" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="I69" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="B70">
         <v>5.7590000000000003</v>
@@ -3823,18 +3823,18 @@
         <v>2.4299999999999999E-2</v>
       </c>
       <c r="G70" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="H70" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="I70" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="B71">
         <v>5.7539999999999996</v>
@@ -3852,18 +3852,18 @@
         <v>0.11022999999999999</v>
       </c>
       <c r="G71" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="H71" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="I71" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="B72">
         <v>5.7089999999999996</v>
@@ -3881,18 +3881,18 @@
         <v>2.299E-2</v>
       </c>
       <c r="G72" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="H72" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="I72" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="B73">
         <v>3.8959999999999999</v>
@@ -3910,18 +3910,18 @@
         <v>0.11090999999999999</v>
       </c>
       <c r="G73" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="H73" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="I73" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="B74">
         <v>4.2969999999999997</v>
@@ -3939,18 +3939,18 @@
         <v>0.38330999999999998</v>
       </c>
       <c r="G74" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="H74" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="I74" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="B75">
         <v>4.633</v>
@@ -3968,18 +3968,18 @@
         <v>4.3549999999999998E-2</v>
       </c>
       <c r="G75" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="H75" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="I75" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="B76">
         <v>5.4770000000000003</v>
@@ -3997,18 +3997,18 @@
         <v>7.5209999999999999E-2</v>
       </c>
       <c r="G76" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="H76" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="I76" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="B77">
         <v>3.6560000000000001</v>
@@ -4026,18 +4026,18 @@
         <v>0.12139</v>
       </c>
       <c r="G77" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="H77" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="I77" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="B78">
         <v>5.399</v>
@@ -4055,18 +4055,18 @@
         <v>0.42172999999999999</v>
       </c>
       <c r="G78" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="H78" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="I78" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="B79">
         <v>4.8570000000000002</v>
@@ -4084,18 +4084,18 @@
         <v>1.397E-2</v>
       </c>
       <c r="G79" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="H79" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="I79" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="B80">
         <v>5.2679999999999998</v>
@@ -4113,18 +4113,18 @@
         <v>4.0300000000000002E-2</v>
       </c>
       <c r="G80" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="H80" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="I80" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="B81">
         <v>5.194</v>
@@ -4142,18 +4142,18 @@
         <v>0.10464</v>
       </c>
       <c r="G81" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="H81" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="I81" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="B82">
         <v>5.1920000000000002</v>
@@ -4171,18 +4171,18 @@
         <v>0.14293</v>
       </c>
       <c r="G82" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="H82" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="I82" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="B83">
         <v>4.7880000000000003</v>
@@ -4200,18 +4200,18 @@
         <v>6.8250000000000005E-2</v>
       </c>
       <c r="G83" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="H83" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="I83" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="B84">
         <v>5.1920000000000002</v>
@@ -4229,18 +4229,18 @@
         <v>0.14296</v>
       </c>
       <c r="G84" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="H84" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="I84" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="B85">
         <v>4.5179999999999998</v>
@@ -4258,18 +4258,18 @@
         <v>0.17175000000000001</v>
       </c>
       <c r="G85" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="H85" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="I85" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="B86">
         <v>4.8</v>
@@ -4287,18 +4287,18 @@
         <v>2.758E-2</v>
       </c>
       <c r="G86" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="H86" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="I86" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="B87">
         <v>5.1020000000000003</v>
@@ -4316,18 +4316,18 @@
         <v>1.078E-2</v>
       </c>
       <c r="G87" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="H87" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="I87" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="B88">
         <v>4.5650000000000004</v>
@@ -4345,18 +4345,18 @@
         <v>8.4919999999999995E-2</v>
       </c>
       <c r="G88" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="H88" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="I88" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="B89">
         <v>5.0979999999999999</v>
@@ -4374,18 +4374,18 @@
         <v>6.3320000000000001E-2</v>
       </c>
       <c r="G89" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="H89" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="I89" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="B90">
         <v>5.0730000000000004</v>
@@ -4403,18 +4403,18 @@
         <v>0.12279</v>
       </c>
       <c r="G90" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="H90" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="I90" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="B91">
         <v>4.6769999999999996</v>
@@ -4432,18 +4432,18 @@
         <v>0.13788</v>
       </c>
       <c r="G91" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="H91" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="I91" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="B92">
         <v>5.0129999999999999</v>
@@ -4461,18 +4461,18 @@
         <v>8.5459999999999994E-2</v>
       </c>
       <c r="G92" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="H92" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="I92" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="B93">
         <v>4.9710000000000001</v>
@@ -4490,18 +4490,18 @@
         <v>0.15603</v>
       </c>
       <c r="G93" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="H93" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="I93" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="B94">
         <v>4.8979999999999997</v>
@@ -4519,18 +4519,18 @@
         <v>0.12504000000000001</v>
       </c>
       <c r="G94" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="H94" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="I94" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="B95">
         <v>4.4189999999999996</v>
@@ -4548,18 +4548,18 @@
         <v>5.8389999999999997E-2</v>
       </c>
       <c r="G95" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="H95" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="I95" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="B96">
         <v>4.8739999999999997</v>
@@ -4577,18 +4577,18 @@
         <v>2.666E-2</v>
       </c>
       <c r="G96" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="H96" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="I96" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="B97">
         <v>3.819</v>
@@ -4606,18 +4606,18 @@
         <v>7.2470000000000007E-2</v>
       </c>
       <c r="G97" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="H97" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="I97" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="B98">
         <v>4.8390000000000004</v>
@@ -4635,18 +4635,18 @@
         <v>4.582E-2</v>
       </c>
       <c r="G98" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="H98" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="I98" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="B99">
         <v>4.5709999999999997</v>
@@ -4664,18 +4664,18 @@
         <v>6.232E-2</v>
       </c>
       <c r="G99" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="H99" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="I99" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="B100">
         <v>4.2709999999999999</v>
@@ -4693,18 +4693,18 @@
         <v>9.1789999999999997E-2</v>
       </c>
       <c r="G100" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="H100" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="I100" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="B101">
         <v>4.5140000000000002</v>
@@ -4722,18 +4722,18 @@
         <v>5.9069999999999998E-2</v>
       </c>
       <c r="G101" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="H101" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="I101" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="B102">
         <v>3.681</v>
@@ -4751,18 +4751,18 @@
         <v>8.1240000000000007E-2</v>
       </c>
       <c r="G102" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="H102" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="I102" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="B103">
         <v>4.4359999999999999</v>
@@ -4780,18 +4780,18 @@
         <v>0.17460999999999999</v>
       </c>
       <c r="G103" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="H103" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="I103" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="B104">
         <v>3.9950000000000001</v>
@@ -4809,18 +4809,18 @@
         <v>0.12352</v>
       </c>
       <c r="G104" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="H104" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="I104" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="B105">
         <v>4.3070000000000004</v>
@@ -4838,18 +4838,18 @@
         <v>0.19034000000000001</v>
       </c>
       <c r="G105" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H105" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="I105" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="B106">
         <v>4.2919999999999998</v>
@@ -4867,18 +4867,18 @@
         <v>6.9769999999999999E-2</v>
       </c>
       <c r="G106" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="H106" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="I106" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="B107">
         <v>3.8450000000000002</v>
@@ -4896,18 +4896,18 @@
         <v>0.15639</v>
       </c>
       <c r="G107" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="H107" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="I107" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="B108">
         <v>6.6109999999999998</v>
@@ -4925,18 +4925,18 @@
         <v>0.52207999999999999</v>
       </c>
       <c r="G108" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="H108" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="I108" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="B109">
         <v>5.1239999999999997</v>
@@ -4954,18 +4954,18 @@
         <v>6.4900000000000001E-3</v>
       </c>
       <c r="G109" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="H109" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="I109" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="B110">
         <v>3.4649999999999999</v>
@@ -4983,18 +4983,18 @@
         <v>0.55191000000000001</v>
       </c>
       <c r="G110" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="H110" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="I110" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="B111">
         <v>6.4109999999999996</v>
@@ -5012,18 +5012,18 @@
         <v>0.32523999999999997</v>
       </c>
       <c r="G111" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="H111" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="I111" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="B112">
         <v>4.55</v>
@@ -5041,18 +5041,18 @@
         <v>0.14660000000000001</v>
       </c>
       <c r="G112" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="H112" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="I112" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="B113">
         <v>3.9039999999999999</v>
@@ -5070,18 +5070,18 @@
         <v>0.10713</v>
       </c>
       <c r="G113" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="H113" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="I113" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="B114">
         <v>6.798</v>
@@ -5099,18 +5099,18 @@
         <v>0.49209999999999998</v>
       </c>
       <c r="G114" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="H114" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="I114" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="B115">
         <v>4.5069999999999997</v>
@@ -5128,18 +5128,18 @@
         <v>8.7859999999999994E-2</v>
       </c>
       <c r="G115" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="H115" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="I115" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="B116">
         <v>6.13</v>
@@ -5157,18 +5157,18 @@
         <v>0.11776</v>
       </c>
       <c r="G116" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="H116" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="I116" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="B117">
         <v>5.1230000000000002</v>
@@ -5186,18 +5186,18 @@
         <v>2.6169999999999999E-2</v>
       </c>
       <c r="G117" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="H117" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="I117" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="B118">
         <v>6.2690000000000001</v>
@@ -5215,18 +5215,18 @@
         <v>0.13633000000000001</v>
       </c>
       <c r="G118" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="H118" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="I118" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="B119">
         <v>5.8479999999999999</v>
@@ -5244,18 +5244,18 @@
         <v>3.7870000000000001E-2</v>
       </c>
       <c r="G119" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="H119" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="I119" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="B120">
         <v>7.3639999999999999</v>
@@ -5273,18 +5273,18 @@
         <v>0.43844</v>
       </c>
       <c r="G120" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="H120" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="I120" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="B121">
         <v>4.867</v>
@@ -5302,18 +5302,18 @@
         <v>3.0599999999999999E-2</v>
       </c>
       <c r="G121" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="H121" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="I121" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="B122">
         <v>3.6669999999999998</v>
@@ -5331,18 +5331,18 @@
         <v>5.2690000000000001E-2</v>
       </c>
       <c r="G122" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="H122" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="I122" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="B123">
         <v>2.839</v>
@@ -5360,18 +5360,18 @@
         <v>0.10731</v>
       </c>
       <c r="G123" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="H123" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="I123" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="B124">
         <v>6.4550000000000001</v>
@@ -5389,18 +5389,18 @@
         <v>3.1870000000000002E-2</v>
       </c>
       <c r="G124" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="H124" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="I124" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="B125">
         <v>4.7859999999999996</v>
@@ -5418,18 +5418,18 @@
         <v>0.15071999999999999</v>
       </c>
       <c r="G125" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="H125" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="I125" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="B126">
         <v>5.548</v>
@@ -5447,18 +5447,18 @@
         <v>0.30843999999999999</v>
       </c>
       <c r="G126" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="H126" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="I126" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="B127">
         <v>6.1680000000000001</v>
@@ -5476,18 +5476,18 @@
         <v>1.14E-2</v>
       </c>
       <c r="G127" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="H127" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="I127" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="B128">
         <v>4.7389999999999999</v>
@@ -5505,18 +5505,18 @@
         <v>6.3579999999999998E-2</v>
       </c>
       <c r="G128" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="H128" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="I128" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="B129">
         <v>5.3319999999999999</v>
@@ -5534,18 +5534,18 @@
         <v>0.15745999999999999</v>
       </c>
       <c r="G129" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="H129" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="I129" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="B130">
         <v>3.7810000000000001</v>
@@ -5563,18 +5563,18 @@
         <v>5.747E-2</v>
       </c>
       <c r="G130" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="H130" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="I130" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="B131">
         <v>3.931</v>
@@ -5592,18 +5592,18 @@
         <v>7.2669999999999998E-2</v>
       </c>
       <c r="G131" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="H131" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="I131" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="B132">
         <v>4.681</v>
@@ -5621,18 +5621,18 @@
         <v>2.9610000000000001E-2</v>
       </c>
       <c r="G132" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="H132" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="I132" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="B133">
         <v>6.4850000000000003</v>
@@ -5650,18 +5650,18 @@
         <v>0.24557999999999999</v>
       </c>
       <c r="G133" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="H133" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="I133" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="B134">
         <v>7.1189999999999998</v>
@@ -5679,18 +5679,18 @@
         <v>0.15890000000000001</v>
       </c>
       <c r="G134" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="H134" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="I134" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="B135">
         <v>6.0030000000000001</v>
@@ -5708,18 +5708,18 @@
         <v>0.30825999999999998</v>
       </c>
       <c r="G135" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="H135" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="I135" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="B136">
         <v>5.36</v>
@@ -5737,18 +5737,18 @@
         <v>0.10441</v>
       </c>
       <c r="G136" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="H136" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="I136" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="B137">
         <v>4.6420000000000003</v>
@@ -5766,18 +5766,18 @@
         <v>8.8840000000000002E-2</v>
       </c>
       <c r="G137" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="H137" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="I137" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="B138">
         <v>5.1289999999999996</v>
@@ -5795,18 +5795,18 @@
         <v>0.12468</v>
       </c>
       <c r="G138" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="H138" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="I138" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="B139">
         <v>4.6100000000000003</v>
@@ -5824,18 +5824,18 @@
         <v>8.0790000000000001E-2</v>
       </c>
       <c r="G139" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="H139" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="I139" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="B140">
         <v>6.81</v>
@@ -5853,18 +5853,18 @@
         <v>0.11069</v>
       </c>
       <c r="G140" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="H140" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="I140" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="B141">
         <v>5.9950000000000001</v>
@@ -5882,18 +5882,18 @@
         <v>3.431E-2</v>
       </c>
       <c r="G141" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="H141" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="I141" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="B142">
         <v>5.7160000000000002</v>
@@ -5911,18 +5911,18 @@
         <v>3.005E-2</v>
       </c>
       <c r="G142" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="H142" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="I142" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="B143">
         <v>5.4740000000000002</v>
@@ -5940,18 +5940,18 @@
         <v>0.37124000000000001</v>
       </c>
       <c r="G143" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="H143" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="I143" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="B144">
         <v>4.8760000000000003</v>
@@ -5969,18 +5969,18 @@
         <v>0.24249000000000001</v>
       </c>
       <c r="G144" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="H144" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="I144" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="B145">
         <v>4.6859999999999999</v>
@@ -5998,18 +5998,18 @@
         <v>5.8630000000000002E-2</v>
       </c>
       <c r="G145" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="H145" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="I145" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="B146">
         <v>4.5170000000000003</v>
@@ -6027,18 +6027,18 @@
         <v>7.6249999999999998E-2</v>
       </c>
       <c r="G146" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="H146" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="I146" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="B147">
         <v>4.194</v>
@@ -6056,18 +6056,18 @@
         <v>6.3240000000000005E-2</v>
       </c>
       <c r="G147" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="H147" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="I147" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="B148">
         <v>4.077</v>
@@ -6085,18 +6085,18 @@
         <v>7.8539999999999999E-2</v>
       </c>
       <c r="G148" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="H148" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="I148" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="B149">
         <v>3.9889999999999999</v>
@@ -6114,18 +6114,18 @@
         <v>0.11686000000000001</v>
       </c>
       <c r="G149" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="H149" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="I149" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="B150">
         <v>3.0059999999999998</v>
@@ -6143,13 +6143,13 @@
         <v>0.18906000000000001</v>
       </c>
       <c r="G150" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="H150" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="I150" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
     </row>
   </sheetData>
